--- a/B Bus/CSC v2.1 Reference/CSC BOM.xlsx
+++ b/B Bus/CSC v2.1 Reference/CSC BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="146">
   <si>
     <t>Comment</t>
   </si>
@@ -435,6 +435,33 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Manufacturer PN</t>
+  </si>
+  <si>
+    <t>Mouser PN</t>
+  </si>
+  <si>
+    <t>In Reel</t>
+  </si>
+  <si>
+    <t>1 Left</t>
+  </si>
+  <si>
+    <t>Plenty left</t>
+  </si>
+  <si>
+    <t>Few left</t>
+  </si>
+  <si>
+    <t>520-2033-035-AU</t>
+  </si>
+  <si>
+    <t>887-1507-1-ND</t>
+  </si>
+  <si>
+    <t>887-1316-1-ND</t>
   </si>
 </sst>
 </file>
@@ -784,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,9 +830,11 @@
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,22 +857,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -870,8 +905,10 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -894,12 +931,16 @@
         <v>13</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,8 +967,10 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -954,8 +997,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -982,8 +1027,10 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1020,8 +1067,14 @@
       <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1058,8 +1111,14 @@
       <c r="L8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1096,8 +1155,14 @@
       <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1134,8 +1199,14 @@
       <c r="L10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1172,8 +1243,14 @@
       <c r="L11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1210,8 +1287,14 @@
       <c r="L12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1248,8 +1331,14 @@
       <c r="L13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1272,12 +1361,16 @@
         <v>54</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1300,12 +1393,16 @@
         <v>56</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1332,8 +1429,10 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1360,8 +1459,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1384,12 +1485,16 @@
         <v>62</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1416,8 +1521,10 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1454,8 +1561,14 @@
       <c r="L20" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1492,8 +1605,14 @@
       <c r="L21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
@@ -1530,8 +1649,14 @@
       <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -1557,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>25</v>
@@ -1568,8 +1693,14 @@
       <c r="L23" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -1595,7 +1726,7 @@
         <v>25</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>25</v>
@@ -1606,8 +1737,14 @@
       <c r="L24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1644,8 +1781,14 @@
       <c r="L25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -1682,8 +1825,14 @@
       <c r="L26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -1720,8 +1869,14 @@
       <c r="L27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
@@ -1758,8 +1913,14 @@
       <c r="L28" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
@@ -1785,7 +1946,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>25</v>
@@ -1796,8 +1957,14 @@
       <c r="L29" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -1834,8 +2001,14 @@
       <c r="L30" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
@@ -1872,8 +2045,14 @@
       <c r="L31" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>113</v>
       </c>
@@ -1910,8 +2089,14 @@
       <c r="L32" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>116</v>
       </c>
@@ -1948,8 +2133,14 @@
       <c r="L33" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>119</v>
       </c>
@@ -1974,10 +2165,14 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -2002,10 +2197,14 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
@@ -2031,7 +2230,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>25</v>
@@ -2040,6 +2239,12 @@
         <v>25</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>25</v>
       </c>
     </row>
